--- a/data/date.xlsx
+++ b/data/date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lsbap\Documents\GitHub\Thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20CF852-0FC2-4C0C-9DB3-BCE6D8013F23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097175C7-8367-4B28-932B-9D99C19B7526}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{01BB64EC-6872-47BC-8ED8-77B8270690F9}"/>
+    <workbookView minimized="1" xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" xr2:uid="{01BB64EC-6872-47BC-8ED8-77B8270690F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B7BEA0-4C40-4BA1-8AE4-C8EA1979414D}">
   <dimension ref="A1:L254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="A253" sqref="A82:A253"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
